--- a/excel/55.xlsx
+++ b/excel/55.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>ФИО</t>
   </si>
@@ -38,22 +38,13 @@
     <t>Стаж</t>
   </si>
   <si>
-    <t>03.10.2017 0:00:00</t>
-  </si>
-  <si>
-    <t>13.00:00:00</t>
-  </si>
-  <si>
-    <t>05.10.2017 0:00:00</t>
-  </si>
-  <si>
-    <t>11.00:00:00</t>
+    <t>04.10.2017 0:00:00</t>
   </si>
   <si>
     <t>08.10.2017 0:00:00</t>
   </si>
   <si>
-    <t>8.00:00:00</t>
+    <t>25.09.2017 0:00:00</t>
   </si>
 </sst>
 </file>
@@ -127,18 +118,26 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment horizontal="left"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -151,6 +150,190 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Работники!$A$2:$C$4</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="3"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>04.10.2017 0:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>08.10.2017 0:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>25.09.2017 0:00:00</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>6</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>6</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Работники!$D$2:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="202961424"/>
+        <c:axId val="204021840"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="202961424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="204021840"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="204021840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="202961424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>555625</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -450,8 +633,8 @@
       <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>5</v>
+      <c r="D2" s="3">
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -462,10 +645,10 @@
         <v>5</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="D3" s="3">
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -476,14 +659,15 @@
         <v>6</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="D4" s="3">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>